--- a/010-Count-Characters/MIMIC-III-character-counts.xlsx
+++ b/010-Count-Characters/MIMIC-III-character-counts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MIMIC-III\scripts\010-Count-Characters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MIMIC-III-Getting-Cleaning\010-Count-Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="39600" windowHeight="17928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="39600" windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="MIMIC-III-character-counts" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>See to far right of sheet (column IZ).  Almost half of the files have no</a:t>
+            <a:t>Scroll to far right of sheet (column IZ).  Almost half of the files have no</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1241,94 +1241,94 @@
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="61" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="76" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="90" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="102" max="104" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="106" max="108" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="111" max="115" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="120" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="121" max="124" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="61" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="76" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="90" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="102" max="104" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="106" max="108" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="111" max="115" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="117" max="120" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="124" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="131" max="258" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="18.109375" style="18" customWidth="1"/>
+    <col min="259" max="259" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="18.08984375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:260" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="IY1" s="14"/>
       <c r="IZ1" s="16"/>
     </row>
-    <row r="2" spans="1:260" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:260" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>18.026891839191549</v>
       </c>
     </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>3.0006606765327697</v>
       </c>
     </row>
-    <row r="7" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>14.004915544706199</v>
       </c>
     </row>
-    <row r="8" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>11.025236108712075</v>
       </c>
     </row>
-    <row r="9" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>8.1259259259259267</v>
       </c>
     </row>
-    <row r="10" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>3.6356397583745195</v>
       </c>
     </row>
-    <row r="11" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>3.2889518413597734</v>
       </c>
     </row>
-    <row r="12" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>9.0096893017296598</v>
       </c>
     </row>
-    <row r="13" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>5.2360742705570296</v>
       </c>
     </row>
-    <row r="14" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>7.2510632536357695</v>
       </c>
     </row>
-    <row r="17" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>8.0000460974157583</v>
       </c>
     </row>
-    <row r="21" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>15.067947072073855</v>
       </c>
     </row>
-    <row r="22" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>0.48335676867223792</v>
       </c>
     </row>
-    <row r="23" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>18.019051349336248</v>
       </c>
     </row>
-    <row r="26" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>24.00002324977622</v>
       </c>
     </row>
-    <row r="27" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:260" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -24036,7 +24036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -25070,7 +25070,7 @@
       </c>
       <c r="IZ30" s="19"/>
     </row>
-    <row r="31" spans="1:260" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:260" x14ac:dyDescent="0.35">
       <c r="IZ31" s="20" t="s">
         <v>67</v>
       </c>
